--- a/natmiOut/OldD4/LR-pairs_lrc2p/Angpt1-Itga5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Angpt1-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.3418398566563</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H2">
-        <v>18.3418398566563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I2">
-        <v>0.9518962894463882</v>
+        <v>0.9541201174409912</v>
       </c>
       <c r="J2">
-        <v>0.9518962894463882</v>
+        <v>0.9683117878380343</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N2">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O2">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P2">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q2">
-        <v>476.7125705341742</v>
+        <v>671.6995656797287</v>
       </c>
       <c r="R2">
-        <v>476.7125705341742</v>
+        <v>6045.296091117559</v>
       </c>
       <c r="S2">
-        <v>0.1798908482386808</v>
+        <v>0.2018729122060696</v>
       </c>
       <c r="T2">
-        <v>0.1798908482386808</v>
+        <v>0.2106350960039156</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.3418398566563</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H3">
-        <v>18.3418398566563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I3">
-        <v>0.9518962894463882</v>
+        <v>0.9541201174409912</v>
       </c>
       <c r="J3">
-        <v>0.9518962894463882</v>
+        <v>0.9683117878380343</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N3">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O3">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P3">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q3">
-        <v>857.3549504936883</v>
+        <v>1034.996344066787</v>
       </c>
       <c r="R3">
-        <v>857.3549504936883</v>
+        <v>9314.967096601085</v>
       </c>
       <c r="S3">
-        <v>0.3235289329860149</v>
+        <v>0.3110583016202524</v>
       </c>
       <c r="T3">
-        <v>0.3235289329860149</v>
+        <v>0.3245596177743496</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.3418398566563</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H4">
-        <v>18.3418398566563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I4">
-        <v>0.9518962894463882</v>
+        <v>0.9541201174409912</v>
       </c>
       <c r="J4">
-        <v>0.9518962894463882</v>
+        <v>0.9683117878380343</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N4">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O4">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P4">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q4">
-        <v>377.8155674689184</v>
+        <v>448.8826011642959</v>
       </c>
       <c r="R4">
-        <v>377.8155674689184</v>
+        <v>4039.943410478663</v>
       </c>
       <c r="S4">
-        <v>0.1425713671313603</v>
+        <v>0.1349073939685693</v>
       </c>
       <c r="T4">
-        <v>0.1425713671313603</v>
+        <v>0.1407629759222014</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.3418398566563</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H5">
-        <v>18.3418398566563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I5">
-        <v>0.9518962894463882</v>
+        <v>0.9541201174409912</v>
       </c>
       <c r="J5">
-        <v>0.9518962894463882</v>
+        <v>0.9683117878380343</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N5">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O5">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P5">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q5">
-        <v>622.0659438206867</v>
+        <v>758.6813747896858</v>
       </c>
       <c r="R5">
-        <v>622.0659438206867</v>
+        <v>6828.132373107172</v>
       </c>
       <c r="S5">
-        <v>0.2347409680615434</v>
+        <v>0.2280144671677887</v>
       </c>
       <c r="T5">
-        <v>0.2347409680615434</v>
+        <v>0.2379113109199244</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.3418398566563</v>
+        <v>20.22494433333334</v>
       </c>
       <c r="H6">
-        <v>18.3418398566563</v>
+        <v>60.67483300000001</v>
       </c>
       <c r="I6">
-        <v>0.9518962894463882</v>
+        <v>0.9541201174409912</v>
       </c>
       <c r="J6">
-        <v>0.9518962894463882</v>
+        <v>0.9683117878380343</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.2817264273563</v>
+        <v>12.8762265</v>
       </c>
       <c r="N6">
-        <v>10.2817264273563</v>
+        <v>25.752453</v>
       </c>
       <c r="O6">
-        <v>0.07476042696854827</v>
+        <v>0.08203059661736112</v>
       </c>
       <c r="P6">
-        <v>0.07476042696854827</v>
+        <v>0.05622443917490542</v>
       </c>
       <c r="Q6">
-        <v>188.5857795805202</v>
+        <v>260.4209641858916</v>
       </c>
       <c r="R6">
-        <v>188.5857795805202</v>
+        <v>1562.525785115349</v>
       </c>
       <c r="S6">
-        <v>0.07116417302878879</v>
+        <v>0.07826704247831116</v>
       </c>
       <c r="T6">
-        <v>0.07116417302878879</v>
+        <v>0.05444278721764348</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.926897777906496</v>
+        <v>0.040521</v>
       </c>
       <c r="H7">
-        <v>0.926897777906496</v>
+        <v>0.121563</v>
       </c>
       <c r="I7">
-        <v>0.04810371055361184</v>
+        <v>0.001911594941455862</v>
       </c>
       <c r="J7">
-        <v>0.04810371055361184</v>
+        <v>0.00194002818046413</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.9904444842906</v>
+        <v>33.211442</v>
       </c>
       <c r="N7">
-        <v>25.9904444842906</v>
+        <v>99.634326</v>
       </c>
       <c r="O7">
-        <v>0.1889815626272723</v>
+        <v>0.211580186305583</v>
       </c>
       <c r="P7">
-        <v>0.1889815626272723</v>
+        <v>0.2175281749633597</v>
       </c>
       <c r="Q7">
-        <v>24.0904852392911</v>
+        <v>1.345760841282</v>
       </c>
       <c r="R7">
-        <v>24.0904852392911</v>
+        <v>12.111847571538</v>
       </c>
       <c r="S7">
-        <v>0.009090714388591577</v>
+        <v>0.0004044556138540413</v>
       </c>
       <c r="T7">
-        <v>0.009090714388591577</v>
+        <v>0.0004220107894738496</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -909,49 +909,49 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.926897777906496</v>
+        <v>0.040521</v>
       </c>
       <c r="H8">
-        <v>0.926897777906496</v>
+        <v>0.121563</v>
       </c>
       <c r="I8">
-        <v>0.04810371055361184</v>
+        <v>0.001911594941455862</v>
       </c>
       <c r="J8">
-        <v>0.04810371055361184</v>
+        <v>0.00194002818046413</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.7431270360019</v>
+        <v>51.17424933333334</v>
       </c>
       <c r="N8">
-        <v>46.7431270360019</v>
+        <v>153.522748</v>
       </c>
       <c r="O8">
-        <v>0.339878342391875</v>
+        <v>0.3260158715178649</v>
       </c>
       <c r="P8">
-        <v>0.339878342391875</v>
+        <v>0.3351809012869699</v>
       </c>
       <c r="Q8">
-        <v>43.32610058207122</v>
+        <v>2.073631757236</v>
       </c>
       <c r="R8">
-        <v>43.32610058207122</v>
+        <v>18.662685815124</v>
       </c>
       <c r="S8">
-        <v>0.01634940940586014</v>
+        <v>0.0006232102908278748</v>
       </c>
       <c r="T8">
-        <v>0.01634940940586014</v>
+        <v>0.0006502603940500874</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.926897777906496</v>
+        <v>0.040521</v>
       </c>
       <c r="H9">
-        <v>0.926897777906496</v>
+        <v>0.121563</v>
       </c>
       <c r="I9">
-        <v>0.04810371055361184</v>
+        <v>0.001911594941455862</v>
       </c>
       <c r="J9">
-        <v>0.04810371055361184</v>
+        <v>0.00194002818046413</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.5985642891658</v>
+        <v>22.19450366666666</v>
       </c>
       <c r="N9">
-        <v>20.5985642891658</v>
+        <v>66.58351099999999</v>
       </c>
       <c r="O9">
-        <v>0.149776155986781</v>
+        <v>0.1413945597650736</v>
       </c>
       <c r="P9">
-        <v>0.149776155986781</v>
+        <v>0.1453694746776606</v>
       </c>
       <c r="Q9">
-        <v>19.09276346769188</v>
+        <v>0.8993434830769999</v>
       </c>
       <c r="R9">
-        <v>19.09276346769188</v>
+        <v>8.094091347692999</v>
       </c>
       <c r="S9">
-        <v>0.007204788855420732</v>
+        <v>0.0002702891251962933</v>
       </c>
       <c r="T9">
-        <v>0.007204788855420732</v>
+        <v>0.0002820208774539283</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1033,49 +1033,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.926897777906496</v>
+        <v>0.040521</v>
       </c>
       <c r="H10">
-        <v>0.926897777906496</v>
+        <v>0.121563</v>
       </c>
       <c r="I10">
-        <v>0.04810371055361184</v>
+        <v>0.001911594941455862</v>
       </c>
       <c r="J10">
-        <v>0.04810371055361184</v>
+        <v>0.00194002818046413</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.9151333062663</v>
+        <v>37.51216133333333</v>
       </c>
       <c r="N10">
-        <v>33.9151333062663</v>
+        <v>112.536484</v>
       </c>
       <c r="O10">
-        <v>0.2466035120255234</v>
+        <v>0.2389787857941174</v>
       </c>
       <c r="P10">
-        <v>0.2466035120255234</v>
+        <v>0.2456970098971044</v>
       </c>
       <c r="Q10">
-        <v>31.43586169898082</v>
+        <v>1.520030289388</v>
       </c>
       <c r="R10">
-        <v>31.43586169898082</v>
+        <v>13.680272604492</v>
       </c>
       <c r="S10">
-        <v>0.01186254396397991</v>
+        <v>0.0004568306380392988</v>
       </c>
       <c r="T10">
-        <v>0.01186254396397991</v>
+        <v>0.0004766591230561568</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.040521</v>
+      </c>
+      <c r="H11">
+        <v>0.121563</v>
+      </c>
+      <c r="I11">
+        <v>0.001911594941455862</v>
+      </c>
+      <c r="J11">
+        <v>0.00194002818046413</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>12.8762265</v>
+      </c>
+      <c r="N11">
+        <v>25.752453</v>
+      </c>
+      <c r="O11">
+        <v>0.08203059661736112</v>
+      </c>
+      <c r="P11">
+        <v>0.05622443917490542</v>
+      </c>
+      <c r="Q11">
+        <v>0.5217575740065</v>
+      </c>
+      <c r="R11">
+        <v>3.130545444039</v>
+      </c>
+      <c r="S11">
+        <v>0.0001568092735383539</v>
+      </c>
+      <c r="T11">
+        <v>0.0001090769964301079</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9320170000000001</v>
+      </c>
+      <c r="H12">
+        <v>1.864034</v>
+      </c>
+      <c r="I12">
+        <v>0.04396828761755308</v>
+      </c>
+      <c r="J12">
+        <v>0.02974818398150157</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>33.211442</v>
+      </c>
+      <c r="N12">
+        <v>99.634326</v>
+      </c>
+      <c r="O12">
+        <v>0.211580186305583</v>
+      </c>
+      <c r="P12">
+        <v>0.2175281749633597</v>
+      </c>
+      <c r="Q12">
+        <v>30.953628538514</v>
+      </c>
+      <c r="R12">
+        <v>185.721771231084</v>
+      </c>
+      <c r="S12">
+        <v>0.009302818485659338</v>
+      </c>
+      <c r="T12">
+        <v>0.006471068169970286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9320170000000001</v>
+      </c>
+      <c r="H13">
+        <v>1.864034</v>
+      </c>
+      <c r="I13">
+        <v>0.04396828761755308</v>
+      </c>
+      <c r="J13">
+        <v>0.02974818398150157</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>51.17424933333334</v>
+      </c>
+      <c r="N13">
+        <v>153.522748</v>
+      </c>
+      <c r="O13">
+        <v>0.3260158715178649</v>
+      </c>
+      <c r="P13">
+        <v>0.3351809012869699</v>
+      </c>
+      <c r="Q13">
+        <v>47.69527034090534</v>
+      </c>
+      <c r="R13">
+        <v>286.1716220454321</v>
+      </c>
+      <c r="S13">
+        <v>0.01433435960678472</v>
+      </c>
+      <c r="T13">
+        <v>0.009971023118570297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.926897777906496</v>
-      </c>
-      <c r="H11">
-        <v>0.926897777906496</v>
-      </c>
-      <c r="I11">
-        <v>0.04810371055361184</v>
-      </c>
-      <c r="J11">
-        <v>0.04810371055361184</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>10.2817264273563</v>
-      </c>
-      <c r="N11">
-        <v>10.2817264273563</v>
-      </c>
-      <c r="O11">
-        <v>0.07476042696854827</v>
-      </c>
-      <c r="P11">
-        <v>0.07476042696854827</v>
-      </c>
-      <c r="Q11">
-        <v>9.53010937855905</v>
-      </c>
-      <c r="R11">
-        <v>9.53010937855905</v>
-      </c>
-      <c r="S11">
-        <v>0.003596253939759483</v>
-      </c>
-      <c r="T11">
-        <v>0.003596253939759483</v>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.9320170000000001</v>
+      </c>
+      <c r="H14">
+        <v>1.864034</v>
+      </c>
+      <c r="I14">
+        <v>0.04396828761755308</v>
+      </c>
+      <c r="J14">
+        <v>0.02974818398150157</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>22.19450366666666</v>
+      </c>
+      <c r="N14">
+        <v>66.58351099999999</v>
+      </c>
+      <c r="O14">
+        <v>0.1413945597650736</v>
+      </c>
+      <c r="P14">
+        <v>0.1453694746776606</v>
+      </c>
+      <c r="Q14">
+        <v>20.68565472389567</v>
+      </c>
+      <c r="R14">
+        <v>124.113928343374</v>
+      </c>
+      <c r="S14">
+        <v>0.006216876671308057</v>
+      </c>
+      <c r="T14">
+        <v>0.004324477878005281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.9320170000000001</v>
+      </c>
+      <c r="H15">
+        <v>1.864034</v>
+      </c>
+      <c r="I15">
+        <v>0.04396828761755308</v>
+      </c>
+      <c r="J15">
+        <v>0.02974818398150157</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>37.51216133333333</v>
+      </c>
+      <c r="N15">
+        <v>112.536484</v>
+      </c>
+      <c r="O15">
+        <v>0.2389787857941174</v>
+      </c>
+      <c r="P15">
+        <v>0.2456970098971044</v>
+      </c>
+      <c r="Q15">
+        <v>34.96197206940933</v>
+      </c>
+      <c r="R15">
+        <v>209.771832416456</v>
+      </c>
+      <c r="S15">
+        <v>0.01050748798828936</v>
+      </c>
+      <c r="T15">
+        <v>0.007309039854123873</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.9320170000000001</v>
+      </c>
+      <c r="H16">
+        <v>1.864034</v>
+      </c>
+      <c r="I16">
+        <v>0.04396828761755308</v>
+      </c>
+      <c r="J16">
+        <v>0.02974818398150157</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>12.8762265</v>
+      </c>
+      <c r="N16">
+        <v>25.752453</v>
+      </c>
+      <c r="O16">
+        <v>0.08203059661736112</v>
+      </c>
+      <c r="P16">
+        <v>0.05622443917490542</v>
+      </c>
+      <c r="Q16">
+        <v>12.0008619938505</v>
+      </c>
+      <c r="R16">
+        <v>48.00344797540201</v>
+      </c>
+      <c r="S16">
+        <v>0.003606744865511611</v>
+      </c>
+      <c r="T16">
+        <v>0.00167257496083183</v>
       </c>
     </row>
   </sheetData>
